--- a/data.xlsx
+++ b/data.xlsx
@@ -1,37 +1,172 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\TutorHub\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C28AF46-24FC-427E-B0B7-6E9BD7326643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Hometown</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>潘腾波</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>大连理工大学</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>大三</t>
+  </si>
+  <si>
+    <t>初一到高一数学、化学</t>
+  </si>
+  <si>
+    <t>1.有多段带教经历，能理解家长需求。
+2.长期接触初中生，备课详细，会布置针对性作业。</t>
+  </si>
+  <si>
+    <t>1.大一教过高一数学化学，学生对高二适应性强。
+2.大三在自习室做全科答疑老师。</t>
+  </si>
+  <si>
+    <t>李想</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>应用数学</t>
+  </si>
+  <si>
+    <t>大二</t>
+  </si>
+  <si>
+    <t>初中全科、高中物理</t>
+  </si>
+  <si>
+    <t>1.数学系出身，逻辑思维强。
+2.性格开朗，善于引导不想学的孩子。</t>
+  </si>
+  <si>
+    <t>1.曾在辅导机构带过暑期初二物理集训班。
+2.一对一辅导过两名中考学生，数学均提分20+。</t>
+  </si>
+  <si>
+    <t>王若琳</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>大连海事大学</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>研一</t>
+  </si>
+  <si>
+    <t>小学全科、新概念英语</t>
+  </si>
+  <si>
+    <t>1.雅思7.5分，发音标准。
+2.有耐心，擅长通过游戏互动教学。</t>
+  </si>
+  <si>
+    <t>1.长期辅导小学弟学妹英语作业。
+2.曾在新东方担任兼职助教。</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +181,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,197 +505,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="17.61328125" customWidth="1"/>
+    <col min="6" max="6" width="11.765625" customWidth="1"/>
+    <col min="8" max="8" width="30.07421875" customWidth="1"/>
+    <col min="9" max="9" width="17.53515625" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Subject</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>University</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Tags</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>张伟</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>数学</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>北京大学</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>200</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>奥数金牌</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>拥有5年奥数辅导经验...</t>
-        </is>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>李娜</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>英语</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>复旦大学</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>250</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>专攻口语</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>曾在新东方任教...</t>
-        </is>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>王强</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>物理</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>清华大学</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>300</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>物理竞赛</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>擅长力学分析...</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Emily</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>雅思</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>UC Berkeley</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>托福115</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>美本申请专家...</t>
-        </is>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,172 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\TutorHub\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C28AF46-24FC-427E-B0B7-6E9BD7326643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Hometown</t>
-  </si>
-  <si>
-    <t>University</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Subjects</t>
-  </si>
-  <si>
-    <t>Advantage</t>
-  </si>
-  <si>
-    <t>Experience</t>
-  </si>
-  <si>
-    <t>潘腾波</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>江苏</t>
-  </si>
-  <si>
-    <t>大连理工大学</t>
-  </si>
-  <si>
-    <t>人工智能</t>
-  </si>
-  <si>
-    <t>大三</t>
-  </si>
-  <si>
-    <t>初一到高一数学、化学</t>
-  </si>
-  <si>
-    <t>1.有多段带教经历，能理解家长需求。
-2.长期接触初中生，备课详细，会布置针对性作业。</t>
-  </si>
-  <si>
-    <t>1.大一教过高一数学化学，学生对高二适应性强。
-2.大三在自习室做全科答疑老师。</t>
-  </si>
-  <si>
-    <t>李想</t>
-  </si>
-  <si>
-    <t>山东</t>
-  </si>
-  <si>
-    <t>应用数学</t>
-  </si>
-  <si>
-    <t>大二</t>
-  </si>
-  <si>
-    <t>初中全科、高中物理</t>
-  </si>
-  <si>
-    <t>1.数学系出身，逻辑思维强。
-2.性格开朗，善于引导不想学的孩子。</t>
-  </si>
-  <si>
-    <t>1.曾在辅导机构带过暑期初二物理集训班。
-2.一对一辅导过两名中考学生，数学均提分20+。</t>
-  </si>
-  <si>
-    <t>王若琳</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>浙江</t>
-  </si>
-  <si>
-    <t>大连海事大学</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>研一</t>
-  </si>
-  <si>
-    <t>小学全科、新概念英语</t>
-  </si>
-  <si>
-    <t>1.雅思7.5分，发音标准。
-2.有耐心，擅长通过游戏互动教学。</t>
-  </si>
-  <si>
-    <t>1.长期辅导小学弟学妹英语作业。
-2.曾在新东方担任兼职助教。</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -181,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -505,153 +420,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="17.61328125" customWidth="1"/>
-    <col min="6" max="6" width="11.765625" customWidth="1"/>
-    <col min="8" max="8" width="30.07421875" customWidth="1"/>
-    <col min="9" max="9" width="17.53515625" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Hometown</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>University</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Subjects</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Advantage</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>潘腾波</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>大三</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>初一到高一数学、化学</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.有多段带教经历，能理解家长需求。
+2.长期接触初中生，备课详细，会布置针对性作业。</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1.大一教过高一数学化学，学生对高二适应性强。
+2.大三在自习室做全科答疑老师。</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>李想</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>应用数学</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>大二</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>初中全科、高中物理</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1.数学系出身，逻辑思维强。
+2.性格开朗，善于引导不想学的孩子。</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.曾在辅导机构带过暑期初二物理集训班。
+2.一对一辅导过两名中考学生，数学均提分20+。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>王若琳</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>大连海事大学</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>英语</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>研一</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>小学全科、新概念英语</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.雅思7.5分，发音标准。
+2.有耐心，擅长通过游戏互动教学。</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.长期辅导小学弟学妹英语作业。
+2.曾在新东方担任兼职助教。</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>潘腾波</t>
+          <t>郑千容</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,49 +511,52 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>自动化</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>大三</t>
+          <t>大四</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>初一到高一数学、化学</t>
+          <t>初一到高三 | 数学、物理、化学</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.有多段带教经历，能理解家长需求。
-2.长期接触初中生，备课详细，会布置针对性作业。</t>
+          <t>1.高中阶段有迅速提高成绩的经历。
+2.针对不同水平同学有不同方案。</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.大一教过高一数学化学，学生对高二适应性强。
-2.大三在自习室做全科答疑老师。</t>
+          <t>1.带育明高中高三学生，高考619分。
+2.带高二学生数理化，期末均提20分。
+3.带高三学生从不及格提到数学110。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>李想</t>
+          <t>李明洋</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>未说明</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -563,81 +566,1105 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>应用数学</t>
+          <t>电子信息工程</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>大二</t>
+          <t>大一</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>初中全科、高中物理</t>
+          <t>高中数学、物理</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.数学系出身，逻辑思维强。
-2.性格开朗，善于引导不想学的孩子。</t>
+          <t>1.高考647分，吉林省排1600，数学130物理94。
+2.获大连市大学生数学竞赛三等奖。
+3.理科思维好，循循善诱。</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.曾在辅导机构带过暑期初二物理集训班。
-2.一对一辅导过两名中考学生，数学均提分20+。</t>
+          <t>1.辅导高三毕业生初高衔接，进入高中后名列前茅。
+2.辅导高二英语，从50分提到90多分。
+3.常年辅导亲戚孩子及大学生志愿服务。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>王若琳</t>
+          <t>刘俊源</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>盘锦</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>人工智能(未来技术班)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>大二</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>数学、英语、物理</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.中考全校第一，高考671分(本专业第一)。
+2.英语四级622，大学各科成绩优异。
+3.性格开朗，不是死学习的孩子。</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.辅导四年级和初升高学生，效果显著。
+2.一个月让高一新生英语进步30分。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>杨博麟</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>辽宁大连</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>飞行器设计与工程</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>大二</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>初高中物理、化学</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1.高考总分650，化学96。
+2.曾任学委兼数学课代表。
+3.认真严谨有耐心，沟通能力强。</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1.高中常为同学解答难题。
+2.辅导同学完成学习任务。</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>关人硕</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>未说明</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>智能车辆工程</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>大三</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>高中数学</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.高考数学149分(接近满分)，总分651。
+2.擅长发现孩子问题，针对性训练，总结解题方法。</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.辅导高三女生数学，从基础差到熟练运用公式。
+2.辅导高一数理，构建知识体系，夯实基础。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>杨同学</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>女</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>山西</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>计算机科学与技术</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>大二</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>一年级到高一 | 数学</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.高考数学131分。
+2.性格开朗，善于营造轻松氛围。
+3.出身教师家庭，对教育有深刻理解。</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.辅导三年级女生，建立浓厚兴趣。
+2.辅导高二女生数学，从80分提到110分。
+3.辅导初一男生，数学进班级前五。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>郑一伊</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>未说明</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>工业设计</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>大二</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>初一到高三 | 英语、政史地、语文</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.高考英语130，语文125。
+2.授课幽默风趣，能激发积极性。
+3.有文科独特的学习技巧和笔记。</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.带高三全科，总分从380提到470 (高考)。
+2.政治单科进步20分，历史进步10分。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>戚宇欣</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>机械设计及其自动化</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>高一到高三 | 语文、英语、生物</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.高考英语140，语文131。
+2.普通话标准，演讲比赛获省级奖项。
+3.擅长补差，讲究技巧。</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.带英语暑期班，平均分从105提到120。
+2.带语文突袭班，文言文得分率明显升高。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>金美慧</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>19</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>吉林</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>知识产权</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>初一到高三 | 英语、地理、历史、政治</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.能理解学习痛点，对应试技巧有经验。
+2.刚上大一，对知识点掌握熟练。
+3.性格内敛沉稳。</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.带高三政史地，每天2小时，半个月各提10分。
+2.学生反馈有了学习兴趣和自信。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>郝佳欣</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>22</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>浙江</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>大连海事大学</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>英语</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>安徽</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>水利工程</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>研一</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>小学全科、新概念英语</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.雅思7.5分，发音标准。
-2.有耐心，擅长通过游戏互动教学。</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1.长期辅导小学弟学妹英语作业。
-2.曾在新东方担任兼职助教。</t>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>初一到初三 | 数学、物理</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1.持有初中物理教师资格证。
+2.针对不同水平同学制定方案。
+3.研究生学历，经验丰富。</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1.暑期带数理补差，从不及格到及格。
+2.带多名学生一学期，期末均提高10分左右。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>王艺澎</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>24</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>吉林</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>大连理工大学(本硕)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>海洋工程</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>研二</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>初一到高三 | 数学、物理</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1.高中参加物理竞赛，高考物理107/110。
+2.本硕连读，理解家长需求。</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.带吉林一中高三物理，从40分提到77分。
+2.带高一物理，成绩较上学期提高20分。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>王君辉</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>19</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>湖北</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>小学初中高中 | 数理化生、语文英语</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1.数学物理初高中蝉联年级第一。
+2.高考数学134，英语134。
+3.全能型学霸，各科均衡。</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.辅导高三英语从90提到110。
+2.辅导高三数学从70提到90。
+3.辅导初二数学物理均有大幅提升。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>姜苏</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>21</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>汉族</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>化学工程与工艺(国际班)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>大三</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>数理化生英</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1.高考英语136，数学128。
+2.理科思维好，擅长构建思维导图。
+3.英语基础扎实，词汇丰富。</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.带理工附小二年级陪读，养成好习惯。
+2.带育明高三男生英语，从60分提到高考95分。
+3.辅导初二数英，数学由70提至100+。</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>史佳旭</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>21</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>辽宁大连</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>英语(保研交大)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>大四</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>英语、政治、地理</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1.英语专业第一，保研上海交大。
+2.获外研社演讲比赛国家级二等奖。
+3.CATTI二级笔译持证，口语极佳。</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.总教学时长超2000小时。
+2.带过超120名学生(含大班/一对一)。
+3.雅思、口语、竞赛辅导经验丰富。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>吴昊沅</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>未说明</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>吉林通化</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>软件工程</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>准大二</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>数物化生</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1.高考数学127，总分600+。
+2.性格外向，善于沟通。
+3.现任班级纪律委员，责任心强。</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.辅导母校高中生物理化学。
+2.带过高三物理化学，成绩显著提升。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>于顺奇</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>21</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>力学</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>大三</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>初中数理化、小学数学、体育</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1.中考全市第17名。
+2.性格开朗，亲和力强。
+3.减肥60斤的毅力，可带体育训练。</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.带高一男生数学从60提到105。
+2.带三名初二数理化，开学考成绩优异。
+3.带体育中考，学生减肥10斤。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>郑家润</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>21</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>自动化</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>大三</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>小学高年级、初一初二、高一高二 | 数学物理</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1.高考数学112(省均分57)，一模137。
+2.直博大连理工。
+3.对笔记和草稿严格要求，抓基础。</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.辅导高二数学，从70提到90 (最高112)。
+2.帮助学生养成独立思考和规范笔记的习惯。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>李老师</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>未说明</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>工程力学(钱令希班)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>大二</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>高中全科 | 擅长数学</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1.高考数学137，总分647。
+2.入选本研贯通培养计划(保研)。
+3.获大连市数学竞赛一等奖。</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.辅导准高一数学，开学考位于班级前列。
+2.辅导准高三数学，从60分提到90分。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>乔韩语</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>未说明</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>新疆</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>智能分子工程</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>高中化学</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1.化竞国初一等奖，入选省队，已保研。
+2.已进入教授实验组。
+3.擅长思想工作，很会夸小朋友。</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1.曾任辅导班助教，学生签约北大强基。
+2.建立简洁的化学记忆程序和思维体系。
+3.通法通解，以不变应万变。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>常嘉豪</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>山西</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>力学拔尖班</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>高一到高三 | 数学、物理、化学</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1.高考数学137，理科思维清晰。
+2.擅长制定学习方案。
+3.拔尖班学霸，逻辑严谨。</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1.辅导准高一新生，开学考数学138物理90。
+2.传授高效学习方法，激发学习热情。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>杨武俊</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>甘肃嘉峪关</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>材料专业</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>初中数学、语文、物理</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1.中考语文137，阅读量大。
+2.物理数学基础扎实。
+3.性格外向，擅长帮基础差的孩子补习。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1.辅导初二数学，一个半月从五六十分稳定到100分。
+2.主要针对基础差的学生，补基础效果好。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>潘腾波</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>大连理工大学</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>大三</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>初一到高一 | 数学、化学</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1.有多段带教经历，理解家长需求。
+2.长期接触初中生，备课详细。
+3.会要求学生做针对性题目。</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1.教过高一数理，学生对高二适应性强。
+2.长期在初中自习室做全科答疑老师。</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\TutorHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38001125-4D46-418D-83F6-C00A3BE973B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0A8C08-097B-4CAE-9F11-5DFE6831065A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="222">
   <si>
     <t>Name</t>
   </si>
@@ -687,6 +687,132 @@
     <t>1.辅导高三数学，一个月从28分提到64分。
 2.辅导高一数学，开学月考90分 (提40分)。
 3.辅导学生从60分提到80+。</t>
+  </si>
+  <si>
+    <t>Gretchen Flores Calica</t>
+  </si>
+  <si>
+    <t>Teach International (国际认证)</t>
+  </si>
+  <si>
+    <t>TESOL &amp; TEYL (140小时双证)</t>
+  </si>
+  <si>
+    <t>2019年获证 (资深)</t>
+  </si>
+  <si>
+    <t>英语母语/国际外教</t>
+  </si>
+  <si>
+    <t>青少年英语(TEYL) | 趣味互动 | 语法</t>
+  </si>
+  <si>
+    <t>1.持有140小时高阶证书(含TEYL青少年专项)。
+2.专攻青少年心理发展阶段，懂孩子。
+3.擅长利用游戏和趣味活动活跃课堂。</t>
+  </si>
+  <si>
+    <t>1.接受过系统的“教师工具箱”培训，资源丰富。
+2.擅长课程规划与时间管理。
+3.专注于EFL/ESL(非母语英语)环境教学。</t>
+  </si>
+  <si>
+    <t>Jackylou Mariano</t>
+  </si>
+  <si>
+    <t>World TESOL Academy (英国认证)</t>
+  </si>
+  <si>
+    <t>TESOL/TEFL (120小时)</t>
+  </si>
+  <si>
+    <t>2021年获证</t>
+  </si>
+  <si>
+    <t>在线英语教学 | 海外EFL | 口语</t>
+  </si>
+  <si>
+    <t>1.英国UKRLP注册机构认证，资质过硬。
+2.经过专门的“在线课堂环境”教学培训。
+3.教学风格标准化，适应性强。</t>
+  </si>
+  <si>
+    <t>1.拥有ACCREDITAT国际认证。
+2.专注于非母语学生的海外及在线教学。
+3.具备处理跨文化交流的经验。</t>
+  </si>
+  <si>
+    <t>Nikki Elaine Pertubal</t>
+  </si>
+  <si>
+    <t>TEFL Pro Institute (国际专业发展学院)</t>
+  </si>
+  <si>
+    <t>TEFL (120小时)</t>
+  </si>
+  <si>
+    <t>全年龄段英语 | 听说读写 | 词汇</t>
+  </si>
+  <si>
+    <t>1.核心单元全优通过(Distinction)。
+2.擅长课堂管理，能搞定坐不住的孩子。
+3.覆盖从青少年到成人的全体系教学能力。</t>
+  </si>
+  <si>
+    <t>1.系统完成了120小时核心单元训练。
+2.擅长根据学生反馈调整教学策略。
+3.拥有扎实的词汇与发音教学实战技巧。</t>
+  </si>
+  <si>
+    <t>Mark Diaz</t>
+  </si>
+  <si>
+    <t>成人/青少年英语 | 发音纠正 | 写作</t>
+  </si>
+  <si>
+    <t>1.擅长教授听觉语言技能(说与听)。
+2.对读写技能(读与写)有系统教学法。
+3.善于处理当代英语语言学习中的难点。</t>
+  </si>
+  <si>
+    <t>1.完成17个核心教学模块的系统训练。
+2.擅长针对青少年和成人不同心理特点备课。
+3.注重培养学生的实际语言运用能力。</t>
+  </si>
+  <si>
+    <t>Dennis Arvin Junatas</t>
+  </si>
+  <si>
+    <t>基础英语巩固 | 课堂互动 | 语法</t>
+  </si>
+  <si>
+    <t>1.擅长学习者反馈，能敏锐发现学生问题。
+2.精通语法与发音教学。
+3.具备扎实的对外英语教学理论基础。</t>
+  </si>
+  <si>
+    <t>1.熟练掌握课堂管理技巧，课堂氛围好。
+2.对英语语法教学有独到的拆解方法。
+3.擅长引导学生开口说英语。</t>
+  </si>
+  <si>
+    <t>Myla Lalaine B. Uchu-e</t>
+  </si>
+  <si>
+    <t>持证外教</t>
+  </si>
+  <si>
+    <t>综合英语 | 学习策略 | 国际教学</t>
+  </si>
+  <si>
+    <t>1.以优异成绩(High Distinction)通过考核。
+2.精通不同教学方法在多样化需求中的应用。
+3.擅长用易于理解的方式讲解复杂语法。</t>
+  </si>
+  <si>
+    <t>1.具备国际教学知识(International Teaching Knowledge)。
+2.课堂管理能力强，教学逻辑清晰。
+3.能根据学生需求定制学习策略。</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -2057,6 +2183,180 @@
         <v>187</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" t="s">
+        <v>194</v>
+      </c>
+      <c r="I32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" t="s">
+        <v>201</v>
+      </c>
+      <c r="I33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H34" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" t="s">
+        <v>192</v>
+      </c>
+      <c r="G36" t="s">
+        <v>214</v>
+      </c>
+      <c r="H36" t="s">
+        <v>215</v>
+      </c>
+      <c r="I36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" t="s">
+        <v>219</v>
+      </c>
+      <c r="H37" t="s">
+        <v>220</v>
+      </c>
+      <c r="I37" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
